--- a/xls/装备配置.xlsx
+++ b/xls/装备配置.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15060"/>
+    <workbookView windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="装备配置" sheetId="1" r:id="rId1"/>
+    <sheet name="创世装备配置" sheetId="2" r:id="rId2"/>
+    <sheet name="基础配置" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>EquipConf</t>
   </si>
@@ -96,6 +98,69 @@
   </si>
   <si>
     <t>[5,6]</t>
+  </si>
+  <si>
+    <t>SuperEquipConf</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>qly</t>
+  </si>
+  <si>
+    <t>创世武器</t>
+  </si>
+  <si>
+    <t>创世戒指</t>
+  </si>
+  <si>
+    <t>SuperEquipBaseConf</t>
+  </si>
+  <si>
+    <t>导出参数</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>最大品质</t>
+  </si>
+  <si>
+    <t>maxQly</t>
+  </si>
+  <si>
+    <t>最大穿戴数量</t>
+  </si>
+  <si>
+    <t>MaxWear</t>
+  </si>
+  <si>
+    <t>装备是否可交易</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>装备描述</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>"创世"</t>
+  </si>
+  <si>
+    <t>额外参数</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>[{a:123,b:"atk"},{a:234,b:"def"}]</t>
   </si>
 </sst>
 </file>
@@ -729,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +806,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1269,24 +1346,25 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="40.2307692307692" customWidth="1"/>
-    <col min="2" max="2" width="79.5384615384615" customWidth="1"/>
-    <col min="3" max="3" width="11.1538461538462" customWidth="1"/>
-    <col min="4" max="4" width="85.2307692307692" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="6.46153846153846" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.1538461538462" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.2307692307692" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.23076923076923" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1294,19 +1372,19 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1314,19 +1392,19 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1334,19 +1412,19 @@
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1354,19 +1432,19 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1374,19 +1452,19 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1394,20 +1472,447 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="40.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="6.46153846153846" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6" style="4" customWidth="1"/>
+    <col min="4" max="4" width="85.2307692307692" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.3076923076923" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.8461538461538" style="4" customWidth="1"/>
+    <col min="2" max="3" width="10.3076923076923" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.8461538461538" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
